--- a/diagram.xlsx
+++ b/diagram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15264" windowHeight="5795"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>A node</t>
   </si>
@@ -34,28 +34,39 @@
     <t>ATMP</t>
   </si>
   <si>
+    <t>contract.startWithdraw</t>
+  </si>
+  <si>
+    <t>startWithdraw</t>
+  </si>
+  <si>
     <t>withdraw</t>
   </si>
   <si>
-    <t>startWithdraw</t>
-  </si>
-  <si>
     <t>receiveWithdrawal</t>
   </si>
   <si>
     <t>WithdrawalRequest</t>
   </si>
   <si>
-    <t>do sth</t>
-  </si>
-  <si>
-    <t>authorised</t>
+    <t>WithdrawalRequest 
+- goto function (contract, args, web3)</t>
+  </si>
+  <si>
+    <t>reply sth</t>
+  </si>
+  <si>
+    <t>contract.startAuthorise</t>
   </si>
   <si>
     <t>startAuthorise</t>
   </si>
   <si>
     <t>postAuthorise</t>
+  </si>
+  <si>
+    <t>WithdrawalAuthorisation
+- goto function (args)</t>
   </si>
   <si>
     <t>WithdrawalAuthorisation</t>
@@ -68,8 +79,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,59 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,16 +113,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,15 +175,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +205,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -194,37 +228,14 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,43 +244,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,144 +400,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -427,12 +444,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -457,46 +487,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,8 +521,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,139 +576,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -731,7 +772,70 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下箭头 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251460" y="411480"/>
+          <a:ext cx="167640" cy="2308860"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -986,112 +1090,165 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="21.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="24.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="15.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="38.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:7">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="3:3">
-      <c r="C4" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="4:4">
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
+    <row r="5" spans="2:7">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="2:7">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" ht="28.8" spans="2:7">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="7:7">
-      <c r="G8" t="s">
-        <v>10</v>
+    <row r="8" spans="2:7">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="6:6">
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="2:7">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="5:5">
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
+    <row r="10" spans="2:7">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
+    <row r="11" spans="2:7">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
+    <row r="12" spans="2:7">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" ht="28.8" spans="2:7">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/diagram.xlsx
+++ b/diagram.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>A node</t>
   </si>
@@ -70,6 +71,105 @@
   </si>
   <si>
     <t>WithdrawalAuthorisation</t>
+  </si>
+  <si>
+    <t>ATMNode1.js</t>
+  </si>
+  <si>
+    <t>ATMNode in BTM.sol</t>
+  </si>
+  <si>
+    <t>BTM in BTM.sol</t>
+  </si>
+  <si>
+    <t>ATMNode2.js</t>
+  </si>
+  <si>
+    <t>Bank1 nodejs</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Bank2 nodejs</t>
+  </si>
+  <si>
+    <t>Bank3 nodejs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank A </t>
+  </si>
+  <si>
+    <t>Bank B</t>
+  </si>
+  <si>
+    <t>ATM A01</t>
+  </si>
+  <si>
+    <t>Bank C</t>
+  </si>
+  <si>
+    <t>ATM1</t>
+  </si>
+  <si>
+    <t>ATM2</t>
+  </si>
+  <si>
+    <t>ATM3</t>
+  </si>
+  <si>
+    <t>CWD: B bank customer cwd 100 at A bank ATM A01, fee 1</t>
+  </si>
+  <si>
+    <t>+100</t>
+  </si>
+  <si>
+    <t>-100-1</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>startTrx</t>
+  </si>
+  <si>
+    <t>CDP: B bank customer cdp 100 at A bank ATM A01, fee 2</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>+100-2</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>TFR: B bank customer tfr 100 to C bank customer at A bank ATM A01, fee 3</t>
+  </si>
+  <si>
+    <t>-100-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>CheckDebit</t>
+  </si>
+  <si>
+    <t>confirmDebit</t>
+  </si>
+  <si>
+    <t>CheckCredit</t>
+  </si>
+  <si>
+    <t>confirmCredit</t>
+  </si>
+  <si>
+    <t>debitAndCredit</t>
+  </si>
+  <si>
+    <t>Commit</t>
   </si>
 </sst>
 </file>
@@ -77,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,13 +188,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,37 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -220,6 +304,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -229,13 +329,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,61 +350,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,102 +536,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -425,12 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,20 +609,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,30 +648,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -556,6 +662,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,148 +700,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -833,6 +975,727 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下箭头 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="975360"/>
+          <a:ext cx="167640" cy="2308860"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>716280</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325880" y="1036320"/>
+          <a:ext cx="327660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>43180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2481580" y="1369060"/>
+          <a:ext cx="327660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476500" y="2110740"/>
+          <a:ext cx="1310640" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>868680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2499360" y="1744980"/>
+          <a:ext cx="297180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>960120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1010920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590800" y="2496820"/>
+          <a:ext cx="1186180" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>500380</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1109980" y="3218180"/>
+          <a:ext cx="497840" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1950720" y="1097280"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3083560" y="1483360"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1953260" y="1849120"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直接箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4122420" y="2197100"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1955800" y="2575560"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>322580</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1953260" y="2938780"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1096,10 +1959,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1107,144 +1970,366 @@
     <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="24.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="24.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="38.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="19.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="28.8" spans="2:7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" ht="28.8" spans="2:7">
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B4:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="73.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14">
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="28.8" spans="2:7">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" ht="28.8" spans="2:7">
-      <c r="B13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4"/>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/diagram.xlsx
+++ b/diagram.xlsx
@@ -85,6 +85,12 @@
     <t>ATMNode2.js</t>
   </si>
   <si>
+    <t>debit bank</t>
+  </si>
+  <si>
+    <t>credit bank</t>
+  </si>
+  <si>
     <t>Bank1 nodejs</t>
   </si>
   <si>
@@ -97,79 +103,73 @@
     <t>Bank3 nodejs</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank A </t>
-  </si>
-  <si>
-    <t>Bank B</t>
+    <t>ATM1</t>
+  </si>
+  <si>
+    <t>ATM2</t>
+  </si>
+  <si>
+    <t>ATM3</t>
+  </si>
+  <si>
+    <t>startTrx</t>
+  </si>
+  <si>
+    <t>CheckDebit</t>
+  </si>
+  <si>
+    <t>confirmDebit</t>
+  </si>
+  <si>
+    <t>CheckCredit</t>
+  </si>
+  <si>
+    <t>confirmCredit</t>
+  </si>
+  <si>
+    <t>debitAndCredit</t>
+  </si>
+  <si>
+    <t>Commit</t>
   </si>
   <si>
     <t>ATM A01</t>
   </si>
   <si>
-    <t>Bank C</t>
-  </si>
-  <si>
-    <t>ATM1</t>
-  </si>
-  <si>
-    <t>ATM2</t>
-  </si>
-  <si>
-    <t>ATM3</t>
-  </si>
-  <si>
-    <t>CWD: B bank customer cwd 100 at A bank ATM A01, fee 1</t>
+    <t>ATM B01</t>
+  </si>
+  <si>
+    <t>ATM C01</t>
+  </si>
+  <si>
+    <t>CWD: B bank customer cwd 100 at A bank ATM A01, fee 1, routed thru B bank ATM B01</t>
+  </si>
+  <si>
+    <t>+100+1</t>
+  </si>
+  <si>
+    <t>-100-1</t>
+  </si>
+  <si>
+    <t>CDP: B bank customer cdp 100 at A bank ATM A01, fee 2, routed thru B bank ATM B01</t>
+  </si>
+  <si>
+    <t>-100+2</t>
+  </si>
+  <si>
+    <t>+100-2</t>
+  </si>
+  <si>
+    <t>TFR: B bank customer tfr 100 to C bank customer at A bank ATM A01, fee 3, routed thru B01, C01</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-100-3</t>
   </si>
   <si>
     <t>+100</t>
-  </si>
-  <si>
-    <t>-100-1</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>startTrx</t>
-  </si>
-  <si>
-    <t>CDP: B bank customer cdp 100 at A bank ATM A01, fee 2</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>+100-2</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>TFR: B bank customer tfr 100 to C bank customer at A bank ATM A01, fee 3</t>
-  </si>
-  <si>
-    <t>-100-3</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>CheckDebit</t>
-  </si>
-  <si>
-    <t>confirmDebit</t>
-  </si>
-  <si>
-    <t>CheckCredit</t>
-  </si>
-  <si>
-    <t>confirmCredit</t>
-  </si>
-  <si>
-    <t>debitAndCredit</t>
-  </si>
-  <si>
-    <t>Commit</t>
   </si>
 </sst>
 </file>
@@ -178,9 +178,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,14 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -214,14 +214,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,9 +235,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,9 +274,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,32 +296,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +321,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,199 +362,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,33 +581,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,16 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +649,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -674,9 +666,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,133 +694,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,19 +837,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2136,10 +2130,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B4:N18"/>
+  <dimension ref="B3:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2148,188 +2142,195 @@
     <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="17.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="73.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="53.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="3" spans="4:5">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4"/>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="28.8" spans="10:12">
+      <c r="J22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="28.8" spans="10:12">
+      <c r="J23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" ht="28.8" spans="10:13">
+      <c r="J24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
